--- a/Outputs/PtX_demand_PL.xlsx
+++ b/Outputs/PtX_demand_PL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.002592532533849774</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.001638102794120817</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.374543434429267e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0012865162506582</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.002592532533849774</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.0001038501713575647</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.001638102794120817</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.374543434429267e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0012865162506582</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.0001038501713575647</v>
+        <v>0.04209353237000034</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.04209353237000034</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.004211019860912202</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0004441480958818</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0.0002636685014555992</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.004211019860912202</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0004441480958818</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0.0002636685014555992</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0290593775171794</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.000283354986394</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.859176288020632e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0471813186045739</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0010510979965776</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.005347852960847125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,30 +664,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0290593775171794</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.000283354986394</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.859176288020632e-05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0471813186045739</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0010510979965776</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.005347852960847125</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.02860999837636554</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -684,7 +686,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.02860999837636554</v>
+        <v>0.002712970808218279</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -696,74 +698,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.002592532533849774</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0421973825413579</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.002712970808218279</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.03553398904549602</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03114162840718202</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.000283354986394</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.859413742364074e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0487315033566877</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0010510979965776</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.005347852960847125</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.009760146805220745</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.007906477065471099</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.98775512478507e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001921625411303</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.009760146805220745</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.000107625053469471</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.007906477065471099</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.98775512478507e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.001921625411303</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -771,7 +791,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.000107625053469471</v>
+        <v>0.04362360324319479</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -784,28 +804,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.04362360324319479</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2.835572424067695e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>6.180728827593651e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -813,14 +835,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.01715884391922251</v>
+      </c>
       <c r="F16" t="n">
-        <v>2.835572424067695e-09</v>
+        <v>0.0005614740915223</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>6.180728827593651e-10</v>
+        <v>0.000425910510187</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -828,7 +852,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -836,24 +860,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.01715884391922251</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0005614740915223</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.000425910510187</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -862,17 +880,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0122583760222499</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0004619153742628</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0001530767056961</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0315148618346914</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0012769134743577</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.006053531335024656</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -880,30 +910,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0122583760222499</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0004619153742628</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0001530767056961</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0315148618346914</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0012769134743577</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.006053531335024656</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.03106485599380355</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -912,7 +932,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.03106485599380355</v>
+        <v>0.01043754416655928</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -924,74 +944,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.009760146805220745</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.04373122829666427</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.01043754416655928</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.05866124407958535</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02072633001481573</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0004619153742628</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0001532754812085785</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03386239837425428</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0012769134743577</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.006053531335024656</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.02257679299483188</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0109500861912285</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3.369084826026959e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003075118625393</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.02257679299483188</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.000112139128920748</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0109500861912285</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3.369084826026959e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.003075118625393</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -999,7 +1037,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.000112139128920748</v>
+        <v>0.04545329094274342</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1012,28 +1050,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.04545329094274342</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>2.141428474265807e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.73833091785545e-08</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1041,14 +1081,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.04380488820893796</v>
+      </c>
       <c r="F26" t="n">
-        <v>2.141428474265807e-08</v>
+        <v>8.930977162742288e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.73833091785545e-08</v>
+        <v>0.0001203184374577695</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1056,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1064,24 +1106,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.04380488820893796</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>8.930977162742288e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>7.657144049931777e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.700984660009475e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.193861286686154e-12</v>
+      </c>
       <c r="I27" t="n">
-        <v>0.0001203184374577695</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>5.115228100542922e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.745357826250263e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.162602952504738e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1091,28 +1139,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>7.657144049931777e-11</v>
+        <v>0.0011775139283534</v>
       </c>
       <c r="G28" t="n">
-        <v>1.700984660009475e-11</v>
+        <v>0.0008253616746665</v>
       </c>
       <c r="H28" t="n">
-        <v>3.193861286686154e-12</v>
+        <v>0.0002418546545213</v>
       </c>
       <c r="I28" t="n">
-        <v>5.115228100542922e-10</v>
+        <v>0.008153240440635701</v>
       </c>
       <c r="J28" t="n">
-        <v>8.745357826250263e-12</v>
+        <v>0.0016423129337868</v>
       </c>
       <c r="K28" t="n">
-        <v>4.162602952504738e-10</v>
+        <v>0.00862275038394454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1120,30 +1168,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0011775139283534</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0008253616746665</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0002418546545213</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.008153240440635701</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0016423129337868</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.00862275038394454</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.03410725045252412</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,7 +1190,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.03410725045252412</v>
+        <v>0.0247576261584432</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1164,23 +1202,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.02257679299483188</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.04556543007166416</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.0247576261584432</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.1026697648199053</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01221693138206551</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0008253616916763466</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.000242191566197764</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01134869539831846</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001642312942532158</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.008622750800204835</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_PL.xlsx
+++ b/Outputs/PtX_demand_PL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0063056012968686</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0010065033100193</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,29 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0290593775171794</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.000283354986394</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.859176288020632e-05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0471813186045739</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0010510979965776</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.005347852960847125</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -664,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.02860999837636554</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0290593775171794</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000283354986394</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.005933231760417807</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0471813186045739</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0010510979965776</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.005347852960847125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -685,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.002712970808218279</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.2933332221728951</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0019955860767069</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0541264779238972</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3004094163751975</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0063622983846043</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0523412282957232</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.002592532533849774</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0421973825413579</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03553398904549602</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.03114162840718202</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.000283354986394</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.859413742364074e-05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0487315033566877</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0010510979965776</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.005347852960847125</v>
-      </c>
+        <v>0.02860999837636554</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009760146805220745</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.007906477065471099</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.002712970808218279</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.98775512478507e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.001921625411303</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002592532533849774</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.000107625053469471</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.0421973825413579</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03553398904549602</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3307804518769457</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0022789410631009</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06005971205885845</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3501474230419044</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0074133963811819</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05768908125657032</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.04362360324319479</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.009760146805220745</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.007906477065471099</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.98775512478507e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001921625411303</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.000107625053469471</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>2.835572424067695e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>6.180728827593651e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.01715884391922251</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0005614740915223</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.04362360324319479</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.000425910510187</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -861,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>2.835572424067695e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>6.180728827593651e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -879,30 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.01715884391922251</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0122583760222499</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0004619153742628</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0001530767056961</v>
-      </c>
+        <v>0.0005614740915223</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0315148618346914</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0012769134743577</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.006053531335024656</v>
-      </c>
+        <v>0.000425910510187</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -910,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.03106485599380355</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.003368365795429</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0010746723895496</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -931,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.01043754416655928</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -944,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.009760146805220745</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.04373122829666427</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05866124407958535</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.02072633001481573</v>
+        <v>0.0122583760222499</v>
       </c>
       <c r="G21" t="n">
         <v>0.0004619153742628</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001532754812085785</v>
+        <v>0.0072559170804441</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03386239837425428</v>
+        <v>0.0315148618346914</v>
       </c>
       <c r="J21" t="n">
         <v>0.0012769134743577</v>
@@ -981,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02257679299483188</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0109500861912285</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0787735171741967</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0021453659813628</v>
+      </c>
       <c r="H22" t="n">
-        <v>3.369084826026959e-07</v>
+        <v>0.0510458362244189</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003075118625393</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.1358901254119314</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0056459706129723</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0507687284599282</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.000112139128920748</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.03106485599380355</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1029,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.04545329094274342</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.01043754416655928</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1050,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.009760146805220745</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.04373122829666427</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05866124407958535</v>
+      </c>
       <c r="F25" t="n">
-        <v>2.141428474265807e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.1028682129844414</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0026072813556256</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05830195208037547</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.73833091785545e-08</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.1708271961757353</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00692288408733</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.05682225979495285</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.02257679299483188</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.04380488820893796</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>8.930977162742288e-05</v>
+        <v>0.0109500861912285</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3.369084826026959e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>0.0001203184374577695</v>
+        <v>0.003075118625393</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1098,69 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.000112139128920748</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>7.657144049931777e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.700984660009475e-11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.193861286686154e-12</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.115228100542922e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.745357826250263e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.162602952504738e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.04545329094274342</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0011775139283534</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0008253616746665</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0002418546545213</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.008153240440635701</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0016423129337868</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.00862275038394454</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1168,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.03410725045252412</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2.141428474265807e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.73833091785545e-08</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1190,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0247576261584432</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.04380488820893796</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.930977162742288e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.0001203184374577695</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.0001827415596148154</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0003905917191383</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>7.657144049931777e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.700984660009475e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.768470007493469e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.115228100542922e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.745357826250263e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.162602952504738e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0011775139283534</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0008253616746665</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.009545045218929999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.008153240440635701</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0016423129337868</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.00862275038394454</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0048371862589392</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0019350292581813</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0461476331789721</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0240387721251929</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0048597742726964</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.04731940448143625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.03410725045252412</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0247576261584432</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.02257679299483188</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.04556543007166416</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.1026697648199053</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.01221693138206551</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0008253616916763466</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.000242191566197764</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.01134869539831846</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.001642312942532158</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.008622750800204835</v>
+      <c r="F37" t="n">
+        <v>0.01723685920061952</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.002760390949857647</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0556930155832317</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03577805924264966</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.006502087215228558</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.05594215528164109</v>
       </c>
     </row>
   </sheetData>
